--- a/traces/prediction.xlsx
+++ b/traces/prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cse\CSE240A\traces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804A5B8A-DDA9-47A2-AB72-0377CE7CC274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E189B565-D559-4430-9ACD-9BCBE70E4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="D2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +413,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>0.99199999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="4:7" ht="21" x14ac:dyDescent="0.4">
@@ -427,7 +427,7 @@
         <v>3.246</v>
       </c>
       <c r="G4" s="1">
-        <v>1.333</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="5" spans="4:7" ht="21" x14ac:dyDescent="0.4">
@@ -441,7 +441,7 @@
         <v>12.622</v>
       </c>
       <c r="G5" s="1">
-        <v>10.087999999999999</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="21" x14ac:dyDescent="0.4">
@@ -455,7 +455,7 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="21" x14ac:dyDescent="0.4">
@@ -469,7 +469,7 @@
         <v>2.581</v>
       </c>
       <c r="G7" s="1">
-        <v>1.581</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="21" x14ac:dyDescent="0.4">
@@ -483,7 +483,7 @@
         <v>8.4830000000000005</v>
       </c>
       <c r="G8" s="1">
-        <v>6.39</v>
+        <v>5.4219999999999997</v>
       </c>
     </row>
   </sheetData>
